--- a/paper/figures/regular-performance.xlsx
+++ b/paper/figures/regular-performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235326ED-5606-B24B-AA9E-DB5D3E6EFA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D9C201-AADF-114B-8793-81746897FEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{38B00ABA-734E-8A4C-A432-794CCA708878}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{38B00ABA-734E-8A4C-A432-794CCA708878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
         <c:axId val="935964159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1050,6 +1050,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8088696765722889E-2"/>
+              <c:y val="0.15968367683547754"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1746,15 +1754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>389551</xdr:colOff>
+      <xdr:colOff>389550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>160835</xdr:rowOff>
+      <xdr:rowOff>160834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>366692</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190637</xdr:rowOff>
+      <xdr:colOff>700424</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>184726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1786,12 +1794,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08756</cdr:x>
-      <cdr:y>0.11589</cdr:y>
+      <cdr:x>0.07794</cdr:x>
+      <cdr:y>0.1221</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.20478</cdr:y>
+      <cdr:y>0.21168</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1806,8 +1814,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="651850" y="262498"/>
-          <a:ext cx="6792891" cy="201329"/>
+          <a:off x="601938" y="272421"/>
+          <a:ext cx="7121117" cy="199865"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1838,6 +1846,19 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800">
               <a:ln>
                 <a:noFill/>
@@ -1848,7 +1869,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>  </a:t>
+            <a:t>                    </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800">
@@ -1861,7 +1882,59 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>2.5</a:t>
+            <a:t>             48</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>                                          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>                                       24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>                                   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800">
@@ -1887,33 +1960,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>3.8</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>                      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>48</a:t>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800">
@@ -1939,110 +1986,6 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>                  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>2.76</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>                                            </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>23.7</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>                                     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
             <a:t>6.3</a:t>
           </a:r>
           <a:r>
@@ -2056,7 +1999,20 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>     </a:t>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800">
@@ -2082,7 +2038,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>  </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800">
@@ -2108,7 +2064,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>                   </a:t>
+            <a:t>          </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
@@ -2121,7 +2077,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>42</a:t>
+            <a:t>          42</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
@@ -2147,85 +2103,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>89</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>                                        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>13</a:t>
+            <a:t>88                                            7 10 13                                        </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="800">
             <a:ln>
@@ -2543,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F6F04B-E54E-B64E-BDCF-996E2A236680}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="165" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paper/figures/regular-performance.xlsx
+++ b/paper/figures/regular-performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/mmprof/paper/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D9C201-AADF-114B-8793-81746897FEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C04A27-5A69-C041-B87C-7F4E68751068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{38B00ABA-734E-8A4C-A432-794CCA708878}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>benchmark</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>threadtest</t>
-  </si>
-  <si>
-    <t>dedup-new</t>
   </si>
   <si>
     <t>AVERAGE</t>
@@ -219,9 +216,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -232,21 +229,18 @@
                   <c:v>dedup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ferret</c:v>
+                  <c:v>freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>freqmine</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>raytrace</c:v>
+                  <c:v>swaptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>threadtest</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -254,10 +248,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$11</c:f>
+              <c:f>Sheet1!$M$2:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -279,10 +273,7 @@
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -325,9 +316,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -338,21 +329,18 @@
                   <c:v>dedup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ferret</c:v>
+                  <c:v>freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>freqmine</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>raytrace</c:v>
+                  <c:v>swaptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>threadtest</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -360,10 +348,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$11</c:f>
+              <c:f>Sheet1!$N$2:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.12251655629139073</c:v>
                 </c:pt>
@@ -374,22 +362,19 @@
                   <c:v>1.2764427811721601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97125185554443838</c:v>
+                  <c:v>1.0198117880138682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0198117880138682</c:v>
+                  <c:v>0.98587433024841686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98587433024841686</c:v>
+                  <c:v>1.0255348516218081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0255348516218081</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92621207821274998</c:v>
+                <c:pt idx="8">
+                  <c:v>0.91977782430822308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,9 +416,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -444,21 +429,18 @@
                   <c:v>dedup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ferret</c:v>
+                  <c:v>freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>freqmine</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>raytrace</c:v>
+                  <c:v>swaptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>threadtest</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -466,10 +448,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$11</c:f>
+              <c:f>Sheet1!$O$2:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5165562913907285</c:v>
                 </c:pt>
@@ -480,22 +462,19 @@
                   <c:v>0.95765215681668414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97669470558705618</c:v>
+                  <c:v>1.1188707280832095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1188707280832095</c:v>
+                  <c:v>0.86093521675596685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86093521675596685</c:v>
+                  <c:v>6.2877846790890271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2877846790890271</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.58279009126466752</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7876604836234173</c:v>
+                <c:pt idx="8">
+                  <c:v>1.9035127376286121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,9 +516,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -550,21 +529,18 @@
                   <c:v>dedup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ferret</c:v>
+                  <c:v>freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>freqmine</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>raytrace</c:v>
+                  <c:v>swaptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>threadtest</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -572,10 +548,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$11</c:f>
+              <c:f>Sheet1!$P$2:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.11920529801324503</c:v>
                 </c:pt>
@@ -586,22 +562,19 @@
                   <c:v>1.0178254875163901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96778822366315032</c:v>
+                  <c:v>1.0777612679544328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0777612679544328</c:v>
+                  <c:v>0.94033122260107149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94033122260107149</c:v>
+                  <c:v>0.99930986887508633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99930986887508633</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.72229465449804431</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8932711144604254</c:v>
+                <c:pt idx="8">
+                  <c:v>0.88262581314575039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,9 +616,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -656,21 +629,18 @@
                   <c:v>dedup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ferret</c:v>
+                  <c:v>freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>freqmine</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>raytrace</c:v>
+                  <c:v>swaptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>threadtest</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -678,10 +648,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>Sheet1!$Q$2:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.7748344370860929</c:v>
                 </c:pt>
@@ -692,22 +662,19 @@
                   <c:v>1.0099468190034266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97417120238267196</c:v>
+                  <c:v>1.1579990094105992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1579990094105992</c:v>
+                  <c:v>0.78324403312225999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78324403312225999</c:v>
+                  <c:v>1.0331262939958592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0331262939958592</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.7614080834419816</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2839486728218894</c:v>
+                <c:pt idx="8">
+                  <c:v>8.1853454543132074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,9 +716,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -762,21 +729,18 @@
                   <c:v>dedup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ferret</c:v>
+                  <c:v>freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>freqmine</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>raytrace</c:v>
+                  <c:v>swaptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>threadtest</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -784,10 +748,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:f>Sheet1!$R$2:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.23178807947019867</c:v>
                 </c:pt>
@@ -798,22 +762,19 @@
                   <c:v>2.7644278117531171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0184562098369336</c:v>
+                  <c:v>23.711738484398214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.711738484398214</c:v>
+                  <c:v>1.0270336093521675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0270336093521675</c:v>
+                  <c:v>8.9813664596273277</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9813664596273277</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>41.980443285528033</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.328043106132114</c:v>
+                <c:pt idx="8">
+                  <c:v>11.657984091317136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,9 +816,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -868,21 +829,18 @@
                   <c:v>dedup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ferret</c:v>
+                  <c:v>freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>freqmine</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>raytrace</c:v>
+                  <c:v>swaptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>threadtest</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -890,10 +848,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$11</c:f>
+              <c:f>Sheet1!$S$2:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.27152317880794702</c:v>
                 </c:pt>
@@ -904,22 +862,19 @@
                   <c:v>1.8974788261090993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0072736269293292</c:v>
+                  <c:v>1.0242694403169885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0242694403169885</c:v>
+                  <c:v>0.85411592791037505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85411592791037505</c:v>
+                  <c:v>8.0089717046238782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0089717046238782</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>88.507170795306394</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.112156222624469</c:v>
+                <c:pt idx="8">
+                  <c:v>14.841425164866632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,7 +952,7 @@
         <c:axId val="935964159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1054,8 +1009,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8088696765722889E-2"/>
-              <c:y val="0.15968367683547754"/>
+              <c:x val="1.9729041384245329E-2"/>
+              <c:y val="0.18687473848377648"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1754,15 +1709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>389550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160834</xdr:rowOff>
+      <xdr:colOff>812884</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>700424</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>184726</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300182</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1795,11 +1750,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.07794</cdr:x>
-      <cdr:y>0.1221</cdr:y>
+      <cdr:y>0.11894</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.21168</cdr:y>
+      <cdr:y>0.20852</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1814,8 +1769,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="601938" y="272421"/>
-          <a:ext cx="7121117" cy="199865"/>
+          <a:off x="602566" y="266226"/>
+          <a:ext cx="7128592" cy="200507"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1869,7 +1824,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>                    </a:t>
+            <a:t>       </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800">
@@ -1882,6 +1837,32 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:t>3.7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>             48</a:t>
           </a:r>
           <a:r>
@@ -1895,7 +1876,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>                                          </a:t>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800">
@@ -1908,7 +1889,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>                                       24</a:t>
+            <a:t>3.3</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800">
@@ -1921,6 +1902,58 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:t>                                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>                                   </a:t>
           </a:r>
           <a:r>
@@ -1973,6 +2006,58 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>6.3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
@@ -1986,7 +2071,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>6.3</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800">
@@ -1999,7 +2084,33 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>   </a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>          </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
@@ -2012,23 +2123,36 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>9</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>42</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2041,7 +2165,33 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>88                                           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2064,7 +2214,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>          </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
@@ -2077,7 +2227,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>          42</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0">
@@ -2103,7 +2253,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>88                                            7 10 13                                        </a:t>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="800">
             <a:ln>
@@ -2421,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F6F04B-E54E-B64E-BDCF-996E2A236680}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="165" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2506,31 +2656,31 @@
         <v>13</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M8" si="0">B2/B2</f>
+        <f t="shared" ref="M2:M7" si="0">B2/B2</f>
         <v>1</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N8" si="1">C2/B2</f>
+        <f t="shared" ref="N2:N7" si="1">C2/B2</f>
         <v>0.12251655629139073</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O8" si="2">D2/B2</f>
+        <f t="shared" ref="O2:O7" si="2">D2/B2</f>
         <v>2.5165562913907285</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:P8" si="3">E2/B2</f>
+        <f t="shared" ref="P2:P7" si="3">E2/B2</f>
         <v>0.11920529801324503</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q8" si="4">F2/B2</f>
+        <f t="shared" ref="Q2:Q7" si="4">F2/B2</f>
         <v>3.7748344370860929</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" ref="R2:R8" si="5">G2/B2</f>
+        <f t="shared" ref="R2:R7" si="5">G2/B2</f>
         <v>0.23178807947019867</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S8" si="6">H2/B2</f>
+        <f t="shared" ref="S2:S7" si="6">H2/B2</f>
         <v>0.27152317880794702</v>
       </c>
     </row>
@@ -2650,31 +2800,31 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>25.262499999700001</v>
-      </c>
-      <c r="C5" s="4">
-        <v>24.536250000399999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>24.673749999599998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>24.44875</v>
-      </c>
-      <c r="F5" s="4">
-        <v>24.609999999900001</v>
-      </c>
-      <c r="G5" s="4">
-        <v>25.7287500007</v>
-      </c>
-      <c r="H5" s="4">
-        <v>25.446249999999999</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20.59</v>
+      </c>
+      <c r="D5" s="2">
+        <v>22.59</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21.76</v>
+      </c>
+      <c r="F5" s="2">
+        <v>23.38</v>
+      </c>
+      <c r="G5" s="3">
+        <v>478.74</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20.68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="0"/>
@@ -2682,56 +2832,56 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" si="1"/>
-        <v>0.97125185554443838</v>
+        <v>1.0198117880138682</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>0.97669470558705618</v>
+        <v>1.1188707280832095</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="3"/>
-        <v>0.96778822366315032</v>
+        <v>1.0777612679544328</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="4"/>
-        <v>0.97417120238267196</v>
+        <v>1.1579990094105992</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="5"/>
-        <v>1.0184562098369336</v>
+        <v>23.711738484398214</v>
       </c>
       <c r="S5" s="3">
         <f t="shared" si="6"/>
-        <v>1.0072736269293292</v>
+        <v>1.0242694403169885</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>20.190000000000001</v>
+        <v>41.06</v>
       </c>
       <c r="C6" s="3">
-        <v>20.59</v>
-      </c>
-      <c r="D6" s="2">
-        <v>22.59</v>
-      </c>
-      <c r="E6" s="2">
-        <v>21.76</v>
-      </c>
-      <c r="F6" s="2">
-        <v>23.38</v>
+        <v>40.479999999999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35.35</v>
+      </c>
+      <c r="E6" s="3">
+        <v>38.61</v>
+      </c>
+      <c r="F6" s="3">
+        <v>32.159999999999997</v>
       </c>
       <c r="G6" s="3">
-        <v>478.74</v>
+        <v>42.17</v>
       </c>
       <c r="H6" s="3">
-        <v>20.68</v>
+        <v>35.07</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
@@ -2739,56 +2889,56 @@
       </c>
       <c r="N6" s="2">
         <f t="shared" si="1"/>
-        <v>1.0198117880138682</v>
+        <v>0.98587433024841686</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="2"/>
-        <v>1.1188707280832095</v>
+        <v>0.86093521675596685</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="3"/>
-        <v>1.0777612679544328</v>
+        <v>0.94033122260107149</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="4"/>
-        <v>1.1579990094105992</v>
+        <v>0.78324403312225999</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="5"/>
-        <v>23.711738484398214</v>
+        <v>1.0270336093521675</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" si="6"/>
-        <v>1.0242694403169885</v>
+        <v>0.85411592791037505</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>41.06</v>
+        <v>14.49</v>
       </c>
       <c r="C7" s="3">
-        <v>40.479999999999997</v>
+        <v>14.86</v>
       </c>
       <c r="D7" s="3">
-        <v>35.35</v>
+        <v>91.11</v>
       </c>
       <c r="E7" s="3">
-        <v>38.61</v>
+        <v>14.48</v>
       </c>
       <c r="F7" s="3">
-        <v>32.159999999999997</v>
+        <v>14.97</v>
       </c>
       <c r="G7" s="3">
-        <v>42.17</v>
+        <v>130.13999999999999</v>
       </c>
       <c r="H7" s="3">
-        <v>35.07</v>
+        <v>116.05</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="0"/>
@@ -2796,208 +2946,169 @@
       </c>
       <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>0.98587433024841686</v>
+        <v>1.0255348516218081</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="2"/>
-        <v>0.86093521675596685</v>
+        <v>6.2877846790890271</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="3"/>
-        <v>0.94033122260107149</v>
+        <v>0.99930986887508633</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="4"/>
-        <v>0.78324403312225999</v>
+        <v>1.0331262939958592</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="5"/>
-        <v>1.0270336093521675</v>
+        <v>8.9813664596273277</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" si="6"/>
-        <v>0.85411592791037505</v>
+        <v>8.0089717046238782</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>14.49</v>
+        <v>7.67</v>
       </c>
       <c r="C8" s="3">
-        <v>14.86</v>
+        <v>7.67</v>
       </c>
       <c r="D8" s="3">
-        <v>91.11</v>
+        <v>4.47</v>
       </c>
       <c r="E8" s="3">
-        <v>14.48</v>
+        <v>5.54</v>
       </c>
       <c r="F8" s="3">
-        <v>14.97</v>
+        <v>13.51</v>
       </c>
       <c r="G8" s="3">
-        <v>130.13999999999999</v>
+        <v>321.99</v>
       </c>
       <c r="H8" s="3">
-        <v>116.05</v>
+        <v>678.85</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M8" si="7">B8/B8</f>
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0255348516218081</v>
+        <f t="shared" ref="N8" si="8">C8/B8</f>
+        <v>1</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="2"/>
-        <v>6.2877846790890271</v>
+        <f t="shared" ref="O8" si="9">D8/B8</f>
+        <v>0.58279009126466752</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99930986887508633</v>
+        <f t="shared" ref="P8" si="10">E8/B8</f>
+        <v>0.72229465449804431</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0331262939958592</v>
+        <f t="shared" ref="Q8" si="11">F8/B8</f>
+        <v>1.7614080834419816</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="5"/>
-        <v>8.9813664596273277</v>
+        <f t="shared" ref="R8" si="12">G8/B8</f>
+        <v>41.980443285528033</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="6"/>
-        <v>8.0089717046238782</v>
+        <f t="shared" ref="S8" si="13">H8/B8</f>
+        <v>88.507170795306394</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7.67</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7.67</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.47</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5.54</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13.51</v>
-      </c>
-      <c r="G9" s="3">
-        <v>321.99</v>
-      </c>
-      <c r="H9" s="3">
-        <v>678.85</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" ref="M9" si="7">B9/B9</f>
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ref="N9" si="8">C9/B9</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" ref="O9" si="9">D9/B9</f>
-        <v>0.58279009126466752</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" ref="P9" si="10">E9/B9</f>
-        <v>0.72229465449804431</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" ref="Q9" si="11">F9/B9</f>
-        <v>1.7614080834419816</v>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" ref="R9" si="12">G9/B9</f>
-        <v>41.980443285528033</v>
-      </c>
-      <c r="S9" s="3">
-        <f t="shared" ref="S9" si="13">H9/B9</f>
-        <v>88.507170795306394</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="2">
+        <f>AVERAGE(M2:M8)</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <f>AVERAGE(N2:N8)</f>
+        <v>0.91977782430822308</v>
+      </c>
+      <c r="O10" s="2">
+        <f>AVERAGE(O2:O8)</f>
+        <v>1.9035127376286121</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" ref="P10:S10" si="14">AVERAGE(P2:P8)</f>
+        <v>0.88262581314575039</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="14"/>
+        <v>8.1853454543132074</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="14"/>
+        <v>11.657984091317136</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="14"/>
+        <v>14.841425164866632</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>12.692499999900001</v>
+        <v>25.262499999700001</v>
       </c>
       <c r="C11" s="4">
-        <v>16.2012499999</v>
+        <v>24.536250000399999</v>
       </c>
       <c r="D11" s="4">
-        <v>12.155000000299999</v>
+        <v>24.673749999599998</v>
       </c>
       <c r="E11" s="4">
-        <v>12.918750000199999</v>
+        <v>24.44875</v>
       </c>
       <c r="F11" s="4">
-        <v>12.8187500001</v>
+        <v>24.609999999900001</v>
       </c>
       <c r="G11" s="4">
-        <v>35.087500000399999</v>
+        <v>25.7287500007</v>
       </c>
       <c r="H11" s="4">
-        <v>24.083750000199998</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" ref="M11" si="14">B11/B11</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:S11" si="15">AVERAGE(N2:N9)</f>
-        <v>0.92621207821274998</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="15"/>
-        <v>1.7876604836234173</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="15"/>
-        <v>0.8932711144604254</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="15"/>
-        <v>7.2839486728218894</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="15"/>
-        <v>10.328043106132114</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="15"/>
-        <v>13.112156222624469</v>
-      </c>
+        <v>25.446249999999999</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/figures/regular-performance.xlsx
+++ b/paper/figures/regular-performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/mmprof/paper/figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/mmprof-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C04A27-5A69-C041-B87C-7F4E68751068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F991F8-4020-224E-97C1-5D8B998B8BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{38B00ABA-734E-8A4C-A432-794CCA708878}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{38B00ABA-734E-8A4C-A432-794CCA708878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>benchmark</t>
   </si>
@@ -62,9 +62,6 @@
     <t>dedup</t>
   </si>
   <si>
-    <t>ferret</t>
-  </si>
-  <si>
     <t>freqmine</t>
   </si>
   <si>
@@ -85,12 +82,69 @@
   <si>
     <t>AVERAGE</t>
   </si>
+  <si>
+    <t>reduce madvise in libc2.21</t>
+  </si>
+  <si>
+    <t>blackscholes</t>
+  </si>
+  <si>
+    <t>bodytrack</t>
+  </si>
+  <si>
+    <t>canneal</t>
+  </si>
+  <si>
+    <t>facesim</t>
+  </si>
+  <si>
+    <t>ferret</t>
+  </si>
+  <si>
+    <t>fluidanimate</t>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>larson</t>
+  </si>
+  <si>
+    <t>linear_regression</t>
+  </si>
+  <si>
+    <t>matrix_multiply</t>
+  </si>
+  <si>
+    <t>pca</t>
+  </si>
+  <si>
+    <t>reverse_index</t>
+  </si>
+  <si>
+    <t>streamcluster</t>
+  </si>
+  <si>
+    <t>string_match</t>
+  </si>
+  <si>
+    <t>vips</t>
+  </si>
+  <si>
+    <t>word_count</t>
+  </si>
+  <si>
+    <t>x264</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +179,33 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,12 +227,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,7 +1246,1546 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$18:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>cache-scratch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>cache-thrash</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>threadtest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$18:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6584-7144-85CE-B438DEA4DBC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hoard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$18:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>cache-scratch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>cache-thrash</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>threadtest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$18:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.99520383693045578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89411764705882346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95268890401633766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95823483057525616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0025130363762016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97664291369754552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1317073170731706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1188707280832095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87179487179487181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0294117647058822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99789473684210528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1841820151679305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86093521675596685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1456953642384107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0254885301614274</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2877846790890271</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9892966360856269</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98245614035087714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99793217535153012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5165562913907285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99867549668874178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58279009126466752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6584-7144-85CE-B438DEA4DBC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jemalloc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$18:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>cache-scratch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>cache-thrash</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>threadtest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$18:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.99460431654676262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88705882352941179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92103471749489452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0181245074862098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99541370861343226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96753760886777518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0593495934959349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0777612679544328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91880341880341887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99578947368421067</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0693391115926325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94033122260107149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0463576158940397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98513169073916751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9365079365079364</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99930986887508633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98623853211009171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0292397660818713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0016542597187759</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11920529801324503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3016528925619835</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99801324503311262</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72229465449804431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6584-7144-85CE-B438DEA4DBC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TcMalloc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$18:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>cache-scratch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>cache-thrash</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>threadtest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$18:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.99280575539568339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89764705882352935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91286589516678018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0102442868400316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0268894892253566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97426761678543139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0723577235772357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1579990094105992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85897435897435903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0715059588299025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78324403312225999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99337748344370858</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96686491079014458</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0331262939958592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0137614678899083</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99917287014061207</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7748344370860929</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.776859504132233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0046357615894039</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7614080834419816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6584-7144-85CE-B438DEA4DBC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DieHarder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$18:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>cache-scratch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>cache-thrash</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>threadtest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$18:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.028177458033573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0741176470588236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3454731109598368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7651694247438932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0214864610165233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0182106096595407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1373983739837399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.711738484398214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90781440781440781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99789473684210528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2047670639219934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0270336093521675</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9933774834437084</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97493627867459642</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9813664596273277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.616207951070336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97660818713450293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0860215053763442</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23178807947019867</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.009933774834437</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.980443285528033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6584-7144-85CE-B438DEA4DBC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenBSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$18:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>cache-scratch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>cache-thrash</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>threadtest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$18:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.99700239808153468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0505882352941176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0704560925799864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8975571315996846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0150782182572093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0071258907363421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1073170731707316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0242694403169885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8925518925518926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0021052631578946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1159263271939328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85411592791037505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0860927152317879</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96474086661002556</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0317460317460319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0089717046238782</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5764525993883796</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0175438596491229</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99710504549214229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27152317880794702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3264462809917359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0019867549668875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>88.507170795306394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6584-7144-85CE-B438DEA4DBC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="935470191"/>
+        <c:axId val="935964159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="935470191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935964159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="935964159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Normalized Runtime</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9729013281384038E-2"/>
+              <c:y val="0.16901099395726196"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935470191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1704,20 +3328,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>812884</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>168531</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355684</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>58465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>300182</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>36451</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>672715</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1737,6 +3864,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2456361</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>258793</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B94F570-4C8C-9744-8E38-88D9DAA04B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2569,13 +4734,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F6F04B-E54E-B64E-BDCF-996E2A236680}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2629,7 +4798,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>3.02</v>
@@ -2653,7 +4822,7 @@
         <v>0.82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M7" si="0">B2/B2</f>
@@ -2686,7 +4855,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>2.42</v>
@@ -2710,7 +4879,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="0"/>
@@ -2800,7 +4969,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>20.190000000000001</v>
@@ -2824,7 +4993,7 @@
         <v>20.68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="0"/>
@@ -2857,7 +5026,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>41.06</v>
@@ -2881,7 +5050,7 @@
         <v>35.07</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
@@ -2914,7 +5083,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>14.49</v>
@@ -2938,7 +5107,7 @@
         <v>116.05</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="0"/>
@@ -2971,7 +5140,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>7.67</v>
@@ -2995,7 +5164,7 @@
         <v>678.85</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ref="M8" si="7">B8/B8</f>
@@ -3045,7 +5214,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="L10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="2">
         <f>AVERAGE(M2:M8)</f>
@@ -3076,39 +5245,1333 @@
         <v>14.841425164866632</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>13.0962500004</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16.68</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>16.59</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16.63</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="4">
+        <f>B18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f>C18/B18</f>
+        <v>0.99520383693045578</v>
+      </c>
+      <c r="L18" s="4">
+        <f>D18/B18</f>
+        <v>0.99460431654676262</v>
+      </c>
+      <c r="M18" s="4">
+        <f>E18/B18</f>
+        <v>0.99280575539568339</v>
+      </c>
+      <c r="N18" s="4">
+        <f>F18/B18</f>
+        <v>1.028177458033573</v>
+      </c>
+      <c r="O18" s="4">
+        <f>G18/B18</f>
+        <v>0.99700239808153468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.54</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.63</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G19" s="4">
+        <v>8.93</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4">
+        <f>B19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f>C19/B19</f>
+        <v>0.89411764705882346</v>
+      </c>
+      <c r="L19" s="4">
+        <f>D19/B19</f>
+        <v>0.88705882352941179</v>
+      </c>
+      <c r="M19" s="4">
+        <f>E19/B19</f>
+        <v>0.89764705882352935</v>
+      </c>
+      <c r="N19" s="4">
+        <f>F19/B19</f>
+        <v>1.0741176470588236</v>
+      </c>
+      <c r="O19" s="4">
+        <f>G19/B19</f>
+        <v>1.0505882352941176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>29.38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>27.99</v>
+      </c>
+      <c r="D20" s="4">
+        <v>27.06</v>
+      </c>
+      <c r="E20" s="4">
+        <v>26.82</v>
+      </c>
+      <c r="F20" s="4">
+        <v>39.53</v>
+      </c>
+      <c r="G20" s="4">
+        <v>31.45</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="4">
+        <f>B20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <f>C20/B20</f>
+        <v>0.95268890401633766</v>
+      </c>
+      <c r="L20" s="4">
+        <f>D20/B20</f>
+        <v>0.92103471749489452</v>
+      </c>
+      <c r="M20" s="4">
+        <f>E20/B20</f>
+        <v>0.91286589516678018</v>
+      </c>
+      <c r="N20" s="4">
+        <f>F20/B20</f>
+        <v>1.3454731109598368</v>
+      </c>
+      <c r="O20" s="4">
+        <f>G20/B20</f>
+        <v>1.0704560925799864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12.69</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12.16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12.82</v>
+      </c>
+      <c r="F21" s="4">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="G21" s="4">
+        <v>24.08</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <f>B21/B21</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f>C21/B21</f>
+        <v>0.95823483057525616</v>
+      </c>
+      <c r="L21" s="4">
+        <f>D21/B21</f>
+        <v>1.0181245074862098</v>
+      </c>
+      <c r="M21" s="4">
+        <f>E21/B21</f>
+        <v>1.0102442868400316</v>
+      </c>
+      <c r="N21" s="4">
+        <f>F21/B21</f>
+        <v>2.7651694247438932</v>
+      </c>
+      <c r="O21" s="4">
+        <f>G21/B21</f>
+        <v>1.8975571315996846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>159.16999999999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>159.57</v>
+      </c>
+      <c r="D22" s="4">
+        <v>158.44</v>
+      </c>
+      <c r="E22" s="4">
+        <v>163.44999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>162.59</v>
+      </c>
+      <c r="G22" s="4">
+        <v>161.57</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="4">
+        <f>B22/B22</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f>C22/B22</f>
+        <v>1.0025130363762016</v>
+      </c>
+      <c r="L22" s="4">
+        <f>D22/B22</f>
+        <v>0.99541370861343226</v>
+      </c>
+      <c r="M22" s="4">
+        <f>E22/B22</f>
+        <v>1.0268894892253566</v>
+      </c>
+      <c r="N22" s="4">
+        <f>F22/B22</f>
+        <v>1.0214864610165233</v>
+      </c>
+      <c r="O22" s="4">
+        <f>G22/B22</f>
+        <v>1.0150782182572093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>25.26</v>
+      </c>
+      <c r="C23" s="4">
+        <v>24.67</v>
+      </c>
+      <c r="D23" s="4">
+        <v>24.44</v>
+      </c>
+      <c r="E23" s="4">
+        <v>24.61</v>
+      </c>
+      <c r="F23" s="4">
+        <v>25.72</v>
+      </c>
+      <c r="G23" s="4">
+        <v>25.44</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="4">
+        <f>B23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f>C23/B23</f>
+        <v>0.97664291369754552</v>
+      </c>
+      <c r="L23" s="4">
+        <f>D23/B23</f>
+        <v>0.96753760886777518</v>
+      </c>
+      <c r="M23" s="4">
+        <f>E23/B23</f>
+        <v>0.97426761678543139</v>
+      </c>
+      <c r="N23" s="4">
+        <f>F23/B23</f>
+        <v>1.0182106096595407</v>
+      </c>
+      <c r="O23" s="4">
+        <f>G23/B23</f>
+        <v>1.0071258907363421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>13.92</v>
+      </c>
+      <c r="D24" s="4">
+        <v>13.03</v>
+      </c>
+      <c r="E24" s="4">
+        <v>13.19</v>
+      </c>
+      <c r="F24" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="G24" s="4">
+        <v>13.62</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4">
+        <f>B24/B24</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f>C24/B24</f>
+        <v>1.1317073170731706</v>
+      </c>
+      <c r="L24" s="4">
+        <f>D24/B24</f>
+        <v>1.0593495934959349</v>
+      </c>
+      <c r="M24" s="4">
+        <f>E24/B24</f>
+        <v>1.0723577235772357</v>
+      </c>
+      <c r="N24" s="4">
+        <f>F24/B24</f>
+        <v>1.1373983739837399</v>
+      </c>
+      <c r="O24" s="4">
+        <f>G24/B24</f>
+        <v>1.1073170731707316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>25.262499999700001</v>
-      </c>
-      <c r="C11" s="4">
-        <v>24.536250000399999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>24.673749999599998</v>
-      </c>
-      <c r="E11" s="4">
-        <v>24.44875</v>
-      </c>
-      <c r="F11" s="4">
-        <v>24.609999999900001</v>
-      </c>
-      <c r="G11" s="4">
-        <v>25.7287500007</v>
-      </c>
-      <c r="H11" s="4">
-        <v>25.446249999999999</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="B25" s="4">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="C25" s="4">
+        <v>22.59</v>
+      </c>
+      <c r="D25" s="4">
+        <v>21.76</v>
+      </c>
+      <c r="E25" s="4">
+        <v>23.38</v>
+      </c>
+      <c r="F25" s="4">
+        <v>478.74</v>
+      </c>
+      <c r="G25" s="4">
+        <v>20.68</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4">
+        <f>B25/B25</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <f>C25/B25</f>
+        <v>1.1188707280832095</v>
+      </c>
+      <c r="L25" s="4">
+        <f>D25/B25</f>
+        <v>1.0777612679544328</v>
+      </c>
+      <c r="M25" s="4">
+        <f>E25/B25</f>
+        <v>1.1579990094105992</v>
+      </c>
+      <c r="N25" s="4">
+        <f>F25/B25</f>
+        <v>23.711738484398214</v>
+      </c>
+      <c r="O25" s="4">
+        <f>G25/B25</f>
+        <v>1.0242694403169885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="4">
+        <f>B26/B26</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <f>C26/B26</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="L26" s="4">
+        <f>D26/B26</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <f>E26/B26</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="N26" s="4">
+        <f>F26/B26</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="4">
+        <f>G26/B26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>16.38</v>
+      </c>
+      <c r="C27" s="4">
+        <v>14.28</v>
+      </c>
+      <c r="D27" s="4">
+        <v>15.05</v>
+      </c>
+      <c r="E27" s="4">
+        <v>14.07</v>
+      </c>
+      <c r="F27" s="4">
+        <v>14.87</v>
+      </c>
+      <c r="G27" s="4">
+        <v>14.62</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="4">
+        <f>B27/B27</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f>C27/B27</f>
+        <v>0.87179487179487181</v>
+      </c>
+      <c r="L27" s="4">
+        <f>D27/B27</f>
+        <v>0.91880341880341887</v>
+      </c>
+      <c r="M27" s="4">
+        <f>E27/B27</f>
+        <v>0.85897435897435903</v>
+      </c>
+      <c r="N27" s="4">
+        <f>F27/B27</f>
+        <v>0.90781440781440781</v>
+      </c>
+      <c r="O27" s="4">
+        <f>G27/B27</f>
+        <v>0.8925518925518926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="4">
+        <f>B28/B28</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <f>C28/B28</f>
+        <v>1.0294117647058822</v>
+      </c>
+      <c r="L28" s="4">
+        <f>D28/B28</f>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="M28" s="4">
+        <f>E28/B28</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <f>F28/B28</f>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="O28" s="4">
+        <f>G28/B28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4.76</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="4">
+        <f>B29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <f>C29/B29</f>
+        <v>0.99789473684210528</v>
+      </c>
+      <c r="L29" s="4">
+        <f>D29/B29</f>
+        <v>0.99578947368421067</v>
+      </c>
+      <c r="M29" s="4">
+        <f>E29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <f>F29/B29</f>
+        <v>0.99789473684210528</v>
+      </c>
+      <c r="O29" s="4">
+        <f>G29/B29</f>
+        <v>1.0021052631578946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>9.23</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10.93</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E30" s="4">
+        <v>9.89</v>
+      </c>
+      <c r="F30" s="4">
+        <v>11.12</v>
+      </c>
+      <c r="G30" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="4">
+        <f>B30/B30</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <f>C30/B30</f>
+        <v>1.1841820151679305</v>
+      </c>
+      <c r="L30" s="4">
+        <f>D30/B30</f>
+        <v>1.0693391115926325</v>
+      </c>
+      <c r="M30" s="4">
+        <f>E30/B30</f>
+        <v>1.0715059588299025</v>
+      </c>
+      <c r="N30" s="4">
+        <f>F30/B30</f>
+        <v>1.2047670639219934</v>
+      </c>
+      <c r="O30" s="4">
+        <f>G30/B30</f>
+        <v>1.1159263271939328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4">
+        <v>41.06</v>
+      </c>
+      <c r="C31" s="4">
+        <v>35.35</v>
+      </c>
+      <c r="D31" s="4">
+        <v>38.61</v>
+      </c>
+      <c r="E31" s="4">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="F31" s="4">
+        <v>42.17</v>
+      </c>
+      <c r="G31" s="4">
+        <v>35.07</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="4">
+        <f>B31/B31</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <f>C31/B31</f>
+        <v>0.86093521675596685</v>
+      </c>
+      <c r="L31" s="4">
+        <f>D31/B31</f>
+        <v>0.94033122260107149</v>
+      </c>
+      <c r="M31" s="4">
+        <f>E31/B31</f>
+        <v>0.78324403312225999</v>
+      </c>
+      <c r="N31" s="4">
+        <f>F31/B31</f>
+        <v>1.0270336093521675</v>
+      </c>
+      <c r="O31" s="4">
+        <f>G31/B31</f>
+        <v>0.85411592791037505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="4">
+        <f>B32/B32</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <f>C32/B32</f>
+        <v>1.1456953642384107</v>
+      </c>
+      <c r="L32" s="4">
+        <f>D32/B32</f>
+        <v>1.0463576158940397</v>
+      </c>
+      <c r="M32" s="4">
+        <f>E32/B32</f>
+        <v>0.99337748344370858</v>
+      </c>
+      <c r="N32" s="4">
+        <f>F32/B32</f>
+        <v>2.9933774834437084</v>
+      </c>
+      <c r="O32" s="4">
+        <f>G32/B32</f>
+        <v>2.0860927152317879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>23.54</v>
+      </c>
+      <c r="C33" s="4">
+        <v>24.14</v>
+      </c>
+      <c r="D33" s="4">
+        <v>23.19</v>
+      </c>
+      <c r="E33" s="4">
+        <v>22.76</v>
+      </c>
+      <c r="F33" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="G33" s="4">
+        <v>22.71</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="4">
+        <f>B33/B33</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <f>C33/B33</f>
+        <v>1.0254885301614274</v>
+      </c>
+      <c r="L33" s="4">
+        <f>D33/B33</f>
+        <v>0.98513169073916751</v>
+      </c>
+      <c r="M33" s="4">
+        <f>E33/B33</f>
+        <v>0.96686491079014458</v>
+      </c>
+      <c r="N33" s="4">
+        <f>F33/B33</f>
+        <v>0.97493627867459642</v>
+      </c>
+      <c r="O33" s="4">
+        <f>G33/B33</f>
+        <v>0.96474086661002556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="4">
+        <f>B34/B34</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <f>C34/B34</f>
+        <v>1.0476190476190477</v>
+      </c>
+      <c r="L34" s="4">
+        <f>D34/B34</f>
+        <v>0.9365079365079364</v>
+      </c>
+      <c r="M34" s="4">
+        <f>E34/B34</f>
+        <v>1.0158730158730158</v>
+      </c>
+      <c r="N34" s="4">
+        <f>F34/B34</f>
+        <v>1</v>
+      </c>
+      <c r="O34" s="4">
+        <f>G34/B34</f>
+        <v>1.0317460317460319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4">
+        <v>14.49</v>
+      </c>
+      <c r="C35" s="4">
+        <v>91.11</v>
+      </c>
+      <c r="D35" s="4">
+        <v>14.48</v>
+      </c>
+      <c r="E35" s="4">
+        <v>14.97</v>
+      </c>
+      <c r="F35" s="4">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="G35" s="4">
+        <v>116.05</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="4">
+        <f>B35/B35</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <f>C35/B35</f>
+        <v>6.2877846790890271</v>
+      </c>
+      <c r="L35" s="4">
+        <f>D35/B35</f>
+        <v>0.99930986887508633</v>
+      </c>
+      <c r="M35" s="4">
+        <f>E35/B35</f>
+        <v>1.0331262939958592</v>
+      </c>
+      <c r="N35" s="4">
+        <f>F35/B35</f>
+        <v>8.9813664596273277</v>
+      </c>
+      <c r="O35" s="4">
+        <f>G35/B35</f>
+        <v>8.0089717046238782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6.54</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6.47</v>
+      </c>
+      <c r="D36" s="4">
+        <v>6.45</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6.63</v>
+      </c>
+      <c r="F36" s="4">
+        <v>23.65</v>
+      </c>
+      <c r="G36" s="4">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="4">
+        <f>B36/B36</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <f>C36/B36</f>
+        <v>0.9892966360856269</v>
+      </c>
+      <c r="L36" s="4">
+        <f>D36/B36</f>
+        <v>0.98623853211009171</v>
+      </c>
+      <c r="M36" s="4">
+        <f>E36/B36</f>
+        <v>1.0137614678899083</v>
+      </c>
+      <c r="N36" s="4">
+        <f>F36/B36</f>
+        <v>3.616207951070336</v>
+      </c>
+      <c r="O36" s="4">
+        <f>G36/B36</f>
+        <v>2.5764525993883796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="4">
+        <f>B37/B37</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <f>C37/B37</f>
+        <v>0.98245614035087714</v>
+      </c>
+      <c r="L37" s="4">
+        <f>D37/B37</f>
+        <v>1.0292397660818713</v>
+      </c>
+      <c r="M37" s="4">
+        <f>E37/B37</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="4">
+        <f>F37/B37</f>
+        <v>0.97660818713450293</v>
+      </c>
+      <c r="O37" s="4">
+        <f>G37/B37</f>
+        <v>1.0175438596491229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4">
+        <v>24.18</v>
+      </c>
+      <c r="C38" s="4">
+        <v>24.13</v>
+      </c>
+      <c r="D38" s="4">
+        <v>24.22</v>
+      </c>
+      <c r="E38" s="4">
+        <v>24.16</v>
+      </c>
+      <c r="F38" s="4">
+        <v>26.26</v>
+      </c>
+      <c r="G38" s="4">
+        <v>24.11</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="4">
+        <f>B38/B38</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <f>C38/B38</f>
+        <v>0.99793217535153012</v>
+      </c>
+      <c r="L38" s="4">
+        <f>D38/B38</f>
+        <v>1.0016542597187759</v>
+      </c>
+      <c r="M38" s="4">
+        <f>E38/B38</f>
+        <v>0.99917287014061207</v>
+      </c>
+      <c r="N38" s="4">
+        <f>F38/B38</f>
+        <v>1.0860215053763442</v>
+      </c>
+      <c r="O38" s="4">
+        <f>G38/B38</f>
+        <v>0.99710504549214229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="C40" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="E40" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="4">
+        <f>B40/B40</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <f>C40/B40</f>
+        <v>2.5165562913907285</v>
+      </c>
+      <c r="L40" s="4">
+        <f>D40/B40</f>
+        <v>0.11920529801324503</v>
+      </c>
+      <c r="M40" s="4">
+        <f>E40/B40</f>
+        <v>3.7748344370860929</v>
+      </c>
+      <c r="N40" s="4">
+        <f>F40/B40</f>
+        <v>0.23178807947019867</v>
+      </c>
+      <c r="O40" s="4">
+        <f>G40/B40</f>
+        <v>0.27152317880794702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="E41" s="4">
+        <v>115.62</v>
+      </c>
+      <c r="F41" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="G41" s="4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="4">
+        <f>B41/B41</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <f>C41/B41</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <f>D41/B41</f>
+        <v>1.3016528925619835</v>
+      </c>
+      <c r="M41" s="4">
+        <f>E41/B41</f>
+        <v>47.776859504132233</v>
+      </c>
+      <c r="N41" s="4">
+        <f>F41/B41</f>
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="O41" s="4">
+        <f>G41/B41</f>
+        <v>3.3264462809917359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>15.08</v>
+      </c>
+      <c r="D42" s="4">
+        <v>15.07</v>
+      </c>
+      <c r="E42" s="4">
+        <v>15.17</v>
+      </c>
+      <c r="F42" s="4">
+        <v>15.25</v>
+      </c>
+      <c r="G42" s="4">
+        <v>15.13</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="4">
+        <f>B42/B42</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <f>C42/B42</f>
+        <v>0.99867549668874178</v>
+      </c>
+      <c r="L42" s="4">
+        <f>D42/B42</f>
+        <v>0.99801324503311262</v>
+      </c>
+      <c r="M42" s="4">
+        <f>E42/B42</f>
+        <v>1.0046357615894039</v>
+      </c>
+      <c r="N42" s="4">
+        <f>F42/B42</f>
+        <v>1.009933774834437</v>
+      </c>
+      <c r="O42" s="4">
+        <f>G42/B42</f>
+        <v>1.0019867549668875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="4">
+        <v>7.67</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4.47</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="E43" s="4">
+        <v>13.51</v>
+      </c>
+      <c r="F43" s="4">
+        <v>321.99</v>
+      </c>
+      <c r="G43" s="4">
+        <v>678.85</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="4">
+        <f>B43/B43</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <f>C43/B43</f>
+        <v>0.58279009126466752</v>
+      </c>
+      <c r="L43" s="4">
+        <f>D43/B43</f>
+        <v>0.72229465449804431</v>
+      </c>
+      <c r="M43" s="4">
+        <f>E43/B43</f>
+        <v>1.7614080834419816</v>
+      </c>
+      <c r="N43" s="4">
+        <f>F43/B43</f>
+        <v>41.980443285528033</v>
+      </c>
+      <c r="O43" s="4">
+        <f>G43/B43</f>
+        <v>88.507170795306394</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
